--- a/excels/excel4selenium.xlsx
+++ b/excels/excel4selenium.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="1200" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="800" yWindow="1200" windowWidth="22260" windowHeight="12650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="目的" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,8 @@
     <sheet name="功能模板" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>目的：</t>
   </si>
@@ -84,9 +84,6 @@
     <t>工具实现目标以及主要应用场景</t>
   </si>
   <si>
-    <t>name=tj_trnews</t>
-  </si>
-  <si>
     <t>基本根据selenium来走</t>
   </si>
   <si>
@@ -118,43 +115,57 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>loop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>action</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assert oral</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assert type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assert goal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>case</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>loop</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>action</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>path</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>assert oral</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>assert type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>assert goal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>id="kw"</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>selenium</t>
+  </si>
+  <si>
+    <t>id="su"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -162,13 +173,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -206,8 +217,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -477,27 +488,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5">
+    <row r="1" spans="1:2" ht="29">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -544,12 +555,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -558,42 +569,42 @@
     </row>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -604,48 +615,52 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.36328125" customWidth="1"/>
+    <col min="7" max="7" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
         <v>16</v>
       </c>
       <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -658,17 +673,18 @@
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -676,10 +692,24 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
-        <v>20</v>
+      <c r="E4" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/excels/excel4selenium.xlsx
+++ b/excels/excel4selenium.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>目的：</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>id="su"</t>
+  </si>
+  <si>
+    <t>点击百度搜索</t>
   </si>
 </sst>
 </file>
@@ -702,6 +705,9 @@
       </c>
     </row>
     <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
       <c r="C4">
         <v>3</v>
       </c>

--- a/excels/excel4selenium.xlsx
+++ b/excels/excel4selenium.xlsx
@@ -54,12 +54,6 @@
     <t>robot framework，由于ride工具不支持python3，且功能较多学习成本较高</t>
   </si>
   <si>
-    <t>open chrome</t>
-  </si>
-  <si>
-    <t>http://www.baidu.com</t>
-  </si>
-  <si>
     <t>tiltle</t>
   </si>
   <si>
@@ -158,6 +152,12 @@
   </si>
   <si>
     <t>点击百度搜索</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>chrome="http://www.baidu.com"</t>
   </si>
 </sst>
 </file>
@@ -567,47 +567,47 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -628,7 +628,7 @@
     <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.90625" customWidth="1"/>
     <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.36328125" customWidth="1"/>
     <col min="7" max="7" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="10.36328125" bestFit="1" customWidth="1"/>
@@ -636,93 +636,91 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>31</v>
-      </c>
-      <c r="H1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
         <v>36</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excels/excel4selenium.xlsx
+++ b/excels/excel4selenium.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>目的：</t>
   </si>
@@ -139,25 +139,46 @@
     <t>input</t>
   </si>
   <si>
-    <t>id="kw"</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
     <t>selenium</t>
   </si>
   <si>
-    <t>id="su"</t>
-  </si>
-  <si>
     <t>点击百度搜索</t>
   </si>
   <si>
     <t>open</t>
   </si>
   <si>
-    <t>chrome="http://www.baidu.com"</t>
+    <t>get</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com</t>
+  </si>
+  <si>
+    <t>访问搜狐</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>http://www.12306.com</t>
+  </si>
+  <si>
+    <t>kw</t>
+  </si>
+  <si>
+    <t>su</t>
+  </si>
+  <si>
+    <t>loop count</t>
   </si>
 </sst>
 </file>
@@ -619,7 +640,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,14 +648,17 @@
   <cols>
     <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.90625" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.36328125" customWidth="1"/>
-    <col min="7" max="7" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" customWidth="1"/>
+    <col min="7" max="7" width="30.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.36328125" customWidth="1"/>
+    <col min="9" max="9" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -642,85 +666,137 @@
         <v>26</v>
       </c>
       <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
         <v>35</v>
       </c>
-      <c r="G1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2">
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
-        <v>37</v>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/excels/excel4selenium.xlsx
+++ b/excels/excel4selenium.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="1200" windowWidth="22260" windowHeight="12650" activeTab="2"/>
+    <workbookView xWindow="795" yWindow="1200" windowWidth="14595" windowHeight="6630"/>
   </bookViews>
   <sheets>
     <sheet name="目的" sheetId="1" r:id="rId1"/>
     <sheet name="设计" sheetId="4" r:id="rId2"/>
-    <sheet name="功能模板" sheetId="2" r:id="rId3"/>
+    <sheet name="运行方法" sheetId="5" r:id="rId3"/>
+    <sheet name="功能模板" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>目的：</t>
   </si>
@@ -179,17 +180,49 @@
   </si>
   <si>
     <t>loop count</t>
+  </si>
+  <si>
+    <t>1、https://www.python.org/官方网站安装python3.6以及以上版本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>windows平台安装：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、https://www.seleniumhq.org/download/ 下载对应的浏览器驱动（e.g. Mozilla GeckoDriver为firefox浏览器驱动）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、下载浏览器驱动后放在python安装目录下(e.g.C:\Users\ONE\AppData\Local\Programs\Python\Python36)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、cmd进入命令窗口执行 pip install selenium安装selenium工具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、执行cd 程序根目录\PycharmProjects\lantern_source\com\lantern</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、执行python doExcelCommand.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、确认程序执行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -197,13 +230,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -230,7 +263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -239,10 +272,11 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -512,27 +546,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="29">
+    <row r="1" spans="1:2" ht="28.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -579,12 +611,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -639,23 +671,167 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="https://www.seleniumhq.org/download/ 下载对应的浏览器驱动（e.g. Mozilla GeckoDriver为firefox浏览器驱动）"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.90625" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" customWidth="1"/>
-    <col min="7" max="7" width="30.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.36328125" customWidth="1"/>
-    <col min="9" max="9" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.375" customWidth="1"/>
+    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">

--- a/excels/excel4selenium.xlsx
+++ b/excels/excel4selenium.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="1200" windowWidth="14595" windowHeight="6630"/>
+    <workbookView xWindow="795" yWindow="1200" windowWidth="14595" windowHeight="6630" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="目的" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>目的：</t>
   </si>
@@ -546,7 +546,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -556,7 +556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -814,11 +814,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -966,6 +964,46 @@
         <v>46</v>
       </c>
     </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/excels/excel4selenium.xlsx
+++ b/excels/excel4selenium.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="1200" windowWidth="14595" windowHeight="6630"/>
+    <workbookView xWindow="800" yWindow="1200" windowWidth="14600" windowHeight="6630" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="目的" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,8 @@
     <sheet name="功能模板" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -190,10 +190,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2、https://www.seleniumhq.org/download/ 下载对应的浏览器驱动（e.g. Mozilla GeckoDriver为firefox浏览器驱动）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3、下载浏览器驱动后放在python安装目录下(e.g.C:\Users\ONE\AppData\Local\Programs\Python\Python36)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -212,17 +208,20 @@
   <si>
     <t>7、确认程序执行</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、https://www.seleniumhq.org/download/ 下载对应的浏览器驱动（e.g. Mozilla GeckoDriver为firefox浏览器驱动 点击版本号进行下载，windows平台下载为.exe后缀文件，不需要运行直接放在python安装目录下即可）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -230,13 +229,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -275,8 +274,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -546,25 +545,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5">
+    <row r="1" spans="1:2" ht="29">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -611,12 +612,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -671,12 +672,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
@@ -708,7 +709,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -722,7 +723,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -736,7 +737,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -750,7 +751,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -764,7 +765,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -778,7 +779,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -813,25 +814,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="30.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.375" customWidth="1"/>
-    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" customWidth="1"/>
+    <col min="7" max="7" width="30.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.36328125" customWidth="1"/>
+    <col min="9" max="9" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">

--- a/excels/excel4selenium.xlsx
+++ b/excels/excel4selenium.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="1200" windowWidth="14600" windowHeight="6630" activeTab="2"/>
+    <workbookView xWindow="800" yWindow="1200" windowWidth="14600" windowHeight="6630" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="目的" sheetId="1" r:id="rId1"/>
@@ -194,10 +194,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4、cmd进入命令窗口执行 pip install selenium安装selenium工具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>5、执行cd 程序根目录\PycharmProjects\lantern_source\com\lantern</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -211,6 +207,9 @@
   </si>
   <si>
     <t>2、https://www.seleniumhq.org/download/ 下载对应的浏览器驱动（e.g. Mozilla GeckoDriver为firefox浏览器驱动 点击版本号进行下载，windows平台下载为.exe后缀文件，不需要运行直接放在python安装目录下即可）</t>
+  </si>
+  <si>
+    <t>4、cmd进入命令窗口执行 pip install selenium安装selenium工具、执行pip install xlrd安装excel工具</t>
   </si>
 </sst>
 </file>
@@ -675,7 +674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
@@ -709,7 +708,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -737,7 +736,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -751,7 +750,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -765,7 +764,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -779,7 +778,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -817,9 +816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>

--- a/excels/excel4selenium.xlsx
+++ b/excels/excel4selenium.xlsx
@@ -55,9 +55,6 @@
     <t>robot framework，由于ride工具不支持python3，且功能较多学习成本较高</t>
   </si>
   <si>
-    <t>tiltle</t>
-  </si>
-  <si>
     <t>equal</t>
   </si>
   <si>
@@ -122,94 +119,96 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>assert type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assert goal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>case</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>selenium</t>
+  </si>
+  <si>
+    <t>点击百度搜索</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com</t>
+  </si>
+  <si>
+    <t>访问搜狐</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>http://www.12306.com</t>
+  </si>
+  <si>
+    <t>kw</t>
+  </si>
+  <si>
+    <t>su</t>
+  </si>
+  <si>
+    <t>loop count</t>
+  </si>
+  <si>
+    <t>1、https://www.python.org/官方网站安装python3.6以及以上版本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>windows平台安装：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、下载浏览器驱动后放在python安装目录下(e.g.C:\Users\ONE\AppData\Local\Programs\Python\Python36)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、执行cd 程序根目录\PycharmProjects\lantern_source\com\lantern</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、执行python doExcelCommand.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、确认程序执行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、https://www.seleniumhq.org/download/ 下载对应的浏览器驱动（e.g. Mozilla GeckoDriver为firefox浏览器驱动 点击版本号进行下载，windows平台下载为.exe后缀文件，不需要运行直接放在python安装目录下即可）</t>
+  </si>
+  <si>
+    <t>4、cmd进入命令窗口执行 pip install selenium安装selenium工具、执行pip install xlrd安装excel工具</t>
+  </si>
+  <si>
     <t>assert oral</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>assert type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>assert goal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>case</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>selenium</t>
-  </si>
-  <si>
-    <t>点击百度搜索</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>http://www.baidu.com</t>
-  </si>
-  <si>
-    <t>访问搜狐</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>chrome</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>http://www.12306.com</t>
-  </si>
-  <si>
-    <t>kw</t>
-  </si>
-  <si>
-    <t>su</t>
-  </si>
-  <si>
-    <t>loop count</t>
-  </si>
-  <si>
-    <t>1、https://www.python.org/官方网站安装python3.6以及以上版本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>windows平台安装：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、下载浏览器驱动后放在python安装目录下(e.g.C:\Users\ONE\AppData\Local\Programs\Python\Python36)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5、执行cd 程序根目录\PycharmProjects\lantern_source\com\lantern</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6、执行python doExcelCommand.py</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7、确认程序执行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、https://www.seleniumhq.org/download/ 下载对应的浏览器驱动（e.g. Mozilla GeckoDriver为firefox浏览器驱动 点击版本号进行下载，windows平台下载为.exe后缀文件，不需要运行直接放在python安装目录下即可）</t>
-  </si>
-  <si>
-    <t>4、cmd进入命令窗口执行 pip install selenium安装selenium工具、执行pip install xlrd安装excel工具</t>
+  </si>
+  <si>
+    <t>title</t>
   </si>
 </sst>
 </file>
@@ -620,47 +619,47 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -680,7 +679,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -694,7 +693,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -708,7 +707,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -722,7 +721,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -736,7 +735,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -750,7 +749,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -764,7 +763,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -778,7 +777,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -834,69 +833,69 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>29</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>11</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -908,45 +907,45 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>11</v>
-      </c>
-      <c r="K3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
         <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -955,13 +954,13 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/excels/excel4selenium.xlsx
+++ b/excels/excel4selenium.xlsx
@@ -157,9 +157,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>chrome</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -209,6 +206,9 @@
   </si>
   <si>
     <t>title</t>
+  </si>
+  <si>
+    <t>firefox</t>
   </si>
 </sst>
 </file>
@@ -679,7 +679,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -693,7 +693,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -707,7 +707,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -721,7 +721,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -735,7 +735,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -749,7 +749,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -763,7 +763,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -777,7 +777,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -839,7 +839,7 @@
         <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
         <v>13</v>
@@ -857,7 +857,7 @@
         <v>32</v>
       </c>
       <c r="I1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J1" t="s">
         <v>28</v>
@@ -877,14 +877,14 @@
         <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
@@ -914,7 +914,7 @@
       </c>
       <c r="H3" s="3"/>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J3" t="s">
         <v>10</v>
@@ -934,10 +934,10 @@
         <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
         <v>33</v>
@@ -957,10 +957,10 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/excels/excel4selenium.xlsx
+++ b/excels/excel4selenium.xlsx
@@ -11,7 +11,14 @@
     <sheet name="设计" sheetId="4" r:id="rId2"/>
     <sheet name="运行方法" sheetId="5" r:id="rId3"/>
     <sheet name="功能模板" sheetId="2" r:id="rId4"/>
+    <sheet name="基础数据" sheetId="6" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="click">基础数据!$C$2:$C$9</definedName>
+    <definedName name="input">基础数据!$B$2:$B$9</definedName>
+    <definedName name="open">基础数据!$A$2:$A$9</definedName>
+    <definedName name="type">基础数据!$B$2:$B$5</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -22,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
   <si>
     <t>目的：</t>
   </si>
@@ -172,10 +179,6 @@
     <t>loop count</t>
   </si>
   <si>
-    <t>1、https://www.python.org/官方网站安装python3.6以及以上版本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>windows平台安装：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -209,6 +212,42 @@
   </si>
   <si>
     <t>firefox</t>
+  </si>
+  <si>
+    <t>点点出行首页</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>ie</t>
+  </si>
+  <si>
+    <t>edge</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>partial</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>css</t>
+  </si>
+  <si>
+    <t>1、https://www.python.org/官方网站安装python3.6以及以上版本（安装时注意有个添加环境变量到PATH请勾选）</t>
   </si>
 </sst>
 </file>
@@ -679,7 +718,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -693,7 +732,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -707,7 +746,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -721,7 +760,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -735,7 +774,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -749,7 +788,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -763,7 +802,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -777,7 +816,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -857,7 +896,7 @@
         <v>32</v>
       </c>
       <c r="I1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J1" t="s">
         <v>28</v>
@@ -877,20 +916,20 @@
         <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -914,7 +953,7 @@
       </c>
       <c r="H3" s="3"/>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J3" t="s">
         <v>10</v>
@@ -965,11 +1004,129 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F4:F5">
+      <formula1>INDIRECT($E2)</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1"/>
     <hyperlink ref="G2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>基础数据!$A$1:$B$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excels/excel4selenium.xlsx
+++ b/excels/excel4selenium.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="1200" windowWidth="14600" windowHeight="6630" activeTab="3"/>
+    <workbookView xWindow="800" yWindow="1200" windowWidth="14600" windowHeight="6630" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="目的" sheetId="1" r:id="rId1"/>
-    <sheet name="设计" sheetId="4" r:id="rId2"/>
+    <sheet name="功能与实现" sheetId="4" r:id="rId2"/>
     <sheet name="运行方法" sheetId="5" r:id="rId3"/>
     <sheet name="功能模板" sheetId="2" r:id="rId4"/>
     <sheet name="基础数据" sheetId="6" r:id="rId5"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="74">
   <si>
     <t>目的：</t>
   </si>
@@ -83,9 +83,6 @@
     <t>工具实现目标以及主要应用场景</t>
   </si>
   <si>
-    <t>基本根据selenium来走</t>
-  </si>
-  <si>
     <t>5、支持外部参数列表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -248,6 +245,30 @@
   </si>
   <si>
     <t>1、https://www.python.org/官方网站安装python3.6以及以上版本（安装时注意有个添加环境变量到PATH请勾选）</t>
+  </si>
+  <si>
+    <t>wait time(sec)</t>
+  </si>
+  <si>
+    <t>需求添加时间</t>
+  </si>
+  <si>
+    <t>需求状态</t>
+  </si>
+  <si>
+    <t>需求最后变更时间</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>processing</t>
+  </si>
+  <si>
+    <t>待定</t>
+  </si>
+  <si>
+    <t>6、支持元素等待</t>
   </si>
 </sst>
 </file>
@@ -299,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -309,6 +330,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -325,6 +347,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>179916</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43411AA0-8C03-477B-AE26-2B0240F949E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="552450"/>
+          <a:ext cx="6223000" cy="1100666"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -650,55 +721,144 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="B2" t="s">
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="5">
+        <v>43170</v>
+      </c>
+      <c r="I2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5">
+        <v>43171</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="5">
+        <v>43171</v>
+      </c>
+      <c r="I6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="5">
+        <v>43171</v>
+      </c>
+      <c r="I7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="5">
+        <v>43171</v>
+      </c>
+      <c r="I8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="5">
+        <v>43171</v>
+      </c>
+      <c r="I13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="5">
+        <v>43171</v>
+      </c>
+      <c r="I15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="C16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13" t="s">
-        <v>23</v>
+    <row r="18" spans="3:9">
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="5">
+        <v>43171</v>
+      </c>
+      <c r="I18" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -710,15 +870,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -732,7 +892,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -746,7 +906,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -759,9 +919,7 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -773,9 +931,7 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -787,9 +943,7 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -801,9 +955,7 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -815,9 +967,7 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -840,6 +990,79 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -847,14 +1070,17 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -868,71 +1094,75 @@
     <col min="8" max="8" width="20.36328125" customWidth="1"/>
     <col min="9" max="9" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12" ht="13.5" customHeight="1">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
         <v>13</v>
       </c>
       <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -946,14 +1176,14 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J3" t="s">
         <v>10</v>
@@ -962,7 +1192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -970,21 +1200,21 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>34</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -996,10 +1226,10 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1040,10 +1270,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
         <v>12</v>
@@ -1051,78 +1281,78 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/excels/excel4selenium.xlsx
+++ b/excels/excel4selenium.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="1200" windowWidth="14600" windowHeight="6630" activeTab="2"/>
+    <workbookView xWindow="795" yWindow="1200" windowWidth="14595" windowHeight="6630" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="目的" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <definedName name="type">基础数据!$B$2:$B$5</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -274,12 +274,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -287,13 +287,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -333,8 +333,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -369,7 +369,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43411AA0-8C03-477B-AE26-2B0240F949E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43411AA0-8C03-477B-AE26-2B0240F949E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -653,27 +653,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="29">
+    <row r="1" spans="1:2" ht="28.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -720,18 +720,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -869,12 +869,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
@@ -1075,26 +1075,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.90625" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" customWidth="1"/>
-    <col min="7" max="7" width="30.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.36328125" customWidth="1"/>
-    <col min="9" max="9" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.375" customWidth="1"/>
+    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" customHeight="1">
@@ -1261,12 +1259,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1357,6 +1355,8 @@
     </row>
   </sheetData>
   <dataConsolidate/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excels/excel4selenium.xlsx
+++ b/excels/excel4selenium.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="1200" windowWidth="14595" windowHeight="6630" activeTab="3"/>
+    <workbookView xWindow="800" yWindow="1200" windowWidth="14600" windowHeight="6630" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="目的" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <definedName name="type">基础数据!$B$2:$B$5</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="86">
   <si>
     <t>目的：</t>
   </si>
@@ -226,24 +226,9 @@
     <t>name</t>
   </si>
   <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>tag</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>partial</t>
-  </si>
-  <si>
     <t>xpath</t>
   </si>
   <si>
-    <t>css</t>
-  </si>
-  <si>
     <t>1、https://www.python.org/官方网站安装python3.6以及以上版本（安装时注意有个添加环境变量到PATH请勾选）</t>
   </si>
   <si>
@@ -269,17 +254,68 @@
   </si>
   <si>
     <t>6、支持元素等待</t>
+  </si>
+  <si>
+    <t>class name</t>
+  </si>
+  <si>
+    <t>tag name</t>
+  </si>
+  <si>
+    <t>link text</t>
+  </si>
+  <si>
+    <t>partial link text</t>
+  </si>
+  <si>
+    <t>css selector</t>
+  </si>
+  <si>
+    <t>j_username</t>
+  </si>
+  <si>
+    <t>j_password</t>
+  </si>
+  <si>
+    <t>logOnFormSubmit</t>
+  </si>
+  <si>
+    <t>访问EMS首页</t>
+  </si>
+  <si>
+    <t>填写用户名</t>
+  </si>
+  <si>
+    <t>填写密码</t>
+  </si>
+  <si>
+    <t>点击登录</t>
+  </si>
+  <si>
+    <t>backBtn</t>
+  </si>
+  <si>
+    <t>__tile12</t>
+  </si>
+  <si>
+    <t>sapemstestadmint2@exchange.sap.corp</t>
+  </si>
+  <si>
+    <t>Initial0</t>
+  </si>
+  <si>
+    <t>https://csc-ems-t2-ems-test.cfapps.sap.hana.ondemand.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -287,13 +323,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -333,8 +369,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -369,7 +405,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43411AA0-8C03-477B-AE26-2B0240F949E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43411AA0-8C03-477B-AE26-2B0240F949E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -653,27 +689,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5">
+    <row r="1" spans="1:2" ht="29">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -720,18 +756,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.90625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -739,13 +775,13 @@
         <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -758,7 +794,7 @@
         <v>43170</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -774,7 +810,7 @@
         <v>43171</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -785,7 +821,7 @@
         <v>43171</v>
       </c>
       <c r="I6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -796,7 +832,7 @@
         <v>43171</v>
       </c>
       <c r="I7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -807,7 +843,7 @@
         <v>43171</v>
       </c>
       <c r="I8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -815,7 +851,7 @@
         <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -831,7 +867,7 @@
         <v>43171</v>
       </c>
       <c r="I13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -842,7 +878,7 @@
         <v>43171</v>
       </c>
       <c r="I15" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -852,13 +888,13 @@
     </row>
     <row r="18" spans="3:9">
       <c r="C18" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G18" s="5">
         <v>43171</v>
       </c>
       <c r="I18" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -869,12 +905,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
@@ -892,7 +928,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1075,24 +1111,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="30.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.375" customWidth="1"/>
-    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" customWidth="1"/>
+    <col min="7" max="7" width="68.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.36328125" customWidth="1"/>
+    <col min="9" max="9" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" customHeight="1">
@@ -1130,7 +1169,7 @@
         <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1164,9 +1203,6 @@
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
       <c r="C3">
         <v>3</v>
       </c>
@@ -1214,9 +1250,6 @@
       <c r="A5" t="s">
         <v>33</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
       <c r="D5">
         <v>4</v>
       </c>
@@ -1228,21 +1261,146 @@
       </c>
       <c r="G5" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F4:F5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F4:F5 F7:F11">
       <formula1>INDIRECT($E2)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1"/>
     <hyperlink ref="G2" r:id="rId2"/>
+    <hyperlink ref="G6" r:id="rId3"/>
+    <hyperlink ref="H7" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -1250,7 +1408,7 @@
           <x14:formula1>
             <xm:f>基础数据!$A$1:$B$1</xm:f>
           </x14:formula1>
-          <xm:sqref>E2</xm:sqref>
+          <xm:sqref>E2 E4 E7:E8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1259,12 +1417,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1304,10 +1465,10 @@
         <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1315,42 +1476,42 @@
         <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/excels/excel4selenium.xlsx
+++ b/excels/excel4selenium.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="86">
   <si>
     <t>目的：</t>
   </si>
@@ -62,9 +62,6 @@
     <t>robot framework，由于ride工具不支持python3，且功能较多学习成本较高</t>
   </si>
   <si>
-    <t>equal</t>
-  </si>
-  <si>
     <t>百度</t>
   </si>
   <si>
@@ -205,9 +202,6 @@
     <t>assert oral</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>firefox</t>
   </si>
   <si>
@@ -292,19 +286,25 @@
     <t>点击登录</t>
   </si>
   <si>
-    <t>backBtn</t>
-  </si>
-  <si>
-    <t>__tile12</t>
-  </si>
-  <si>
-    <t>sapemstestadmint2@exchange.sap.corp</t>
-  </si>
-  <si>
     <t>Initial0</t>
   </si>
   <si>
-    <t>https://csc-ems-t2-ems-test.cfapps.sap.hana.ondemand.com</t>
+    <t>https://csc-ems-t1-ems-test.cfapps.sap.hana.ondemand.com</t>
+  </si>
+  <si>
+    <t>sapemstestadmint1@exchange.sap.corp</t>
+  </si>
+  <si>
+    <t>4.1、包含测试时间</t>
+  </si>
+  <si>
+    <t>4.2、包含id、用例名称、OK/NG</t>
+  </si>
+  <si>
+    <t>assertTitle</t>
+  </si>
+  <si>
+    <t>7、支持屏蔽用例</t>
   </si>
 </sst>
 </file>
@@ -757,7 +757,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -772,129 +772,149 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" t="s">
-        <v>64</v>
-      </c>
       <c r="I1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="5">
         <v>43170</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="5">
         <v>43171</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="5">
         <v>43171</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="5">
         <v>43171</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" s="5">
         <v>43171</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G13" s="5">
         <v>43171</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
-      </c>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:9">
       <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="5">
+        <v>83</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="17" spans="3:9">
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="5">
         <v>43171</v>
       </c>
-      <c r="I15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="C16" t="s">
-        <v>22</v>
+      <c r="I17" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="3:9">
       <c r="C18" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="5">
         <v>43171</v>
       </c>
-      <c r="I18" t="s">
-        <v>66</v>
+      <c r="H20" s="5">
+        <v>43173</v>
+      </c>
+      <c r="I20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="C22" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -914,7 +934,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -928,7 +948,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -942,7 +962,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1028,7 +1048,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1042,7 +1062,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1056,7 +1076,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1070,7 +1090,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1084,7 +1104,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1112,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1136,72 +1156,69 @@
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" customHeight="1">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
-        <v>28</v>
-      </c>
       <c r="L1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" t="s">
         <v>52</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -1210,91 +1227,88 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="H3" s="3"/>
-      <c r="I3" t="s">
-        <v>52</v>
-      </c>
       <c r="J3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" t="s">
         <v>10</v>
-      </c>
-      <c r="K3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L7">
         <v>20</v>
@@ -1302,22 +1316,22 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L8">
         <v>20</v>
@@ -1325,71 +1339,28 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" t="s">
-        <v>82</v>
-      </c>
-      <c r="L10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" t="s">
-        <v>81</v>
-      </c>
-      <c r="L11">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F4:F5 F7:F11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F4:F5 F7:F9">
       <formula1>INDIRECT($E2)</formula1>
     </dataValidation>
   </dataValidations>
@@ -1429,89 +1400,89 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/excels/excel4selenium.xlsx
+++ b/excels/excel4selenium.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
   <si>
     <t>目的：</t>
   </si>
@@ -265,36 +265,6 @@
     <t>css selector</t>
   </si>
   <si>
-    <t>j_username</t>
-  </si>
-  <si>
-    <t>j_password</t>
-  </si>
-  <si>
-    <t>logOnFormSubmit</t>
-  </si>
-  <si>
-    <t>访问EMS首页</t>
-  </si>
-  <si>
-    <t>填写用户名</t>
-  </si>
-  <si>
-    <t>填写密码</t>
-  </si>
-  <si>
-    <t>点击登录</t>
-  </si>
-  <si>
-    <t>Initial0</t>
-  </si>
-  <si>
-    <t>https://csc-ems-t1-ems-test.cfapps.sap.hana.ondemand.com</t>
-  </si>
-  <si>
-    <t>sapemstestadmint1@exchange.sap.corp</t>
-  </si>
-  <si>
     <t>4.1、包含测试时间</t>
   </si>
   <si>
@@ -305,6 +275,21 @@
   </si>
   <si>
     <t>7、支持屏蔽用例</t>
+  </si>
+  <si>
+    <t>http://sahitest.com/demo/selectTest.htm</t>
+  </si>
+  <si>
+    <t>打开测试select网页</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>index:1</t>
   </si>
 </sst>
 </file>
@@ -872,13 +857,13 @@
     </row>
     <row r="14" spans="1:9">
       <c r="C14" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:9">
       <c r="C15" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G15" s="5"/>
     </row>
@@ -914,7 +899,7 @@
     </row>
     <row r="22" spans="3:9">
       <c r="C22" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1132,11 +1117,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -1210,7 +1193,7 @@
       </c>
       <c r="H2" s="3"/>
       <c r="J2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s">
         <v>52</v>
@@ -1234,7 +1217,7 @@
       </c>
       <c r="H3" s="3"/>
       <c r="J3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K3" t="s">
         <v>10</v>
@@ -1279,7 +1262,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1288,79 +1271,30 @@
         <v>34</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>76</v>
-      </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s">
         <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" t="s">
         <v>79</v>
       </c>
-      <c r="L8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9">
-        <v>20</v>
+      <c r="H7" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F4:F5 F7:F9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F4:F5">
       <formula1>INDIRECT($E2)</formula1>
     </dataValidation>
   </dataValidations>
@@ -1368,10 +1302,9 @@
     <hyperlink ref="G3" r:id="rId1"/>
     <hyperlink ref="G2" r:id="rId2"/>
     <hyperlink ref="G6" r:id="rId3"/>
-    <hyperlink ref="H7" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -1379,7 +1312,7 @@
           <x14:formula1>
             <xm:f>基础数据!$A$1:$B$1</xm:f>
           </x14:formula1>
-          <xm:sqref>E2 E4 E7:E8</xm:sqref>
+          <xm:sqref>E2 E4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/excels/excel4selenium.xlsx
+++ b/excels/excel4selenium.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="800" yWindow="1200" windowWidth="14600" windowHeight="6630" activeTab="3"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="74">
   <si>
     <t>目的：</t>
   </si>
@@ -62,21 +62,12 @@
     <t>robot framework，由于ride工具不支持python3，且功能较多学习成本较高</t>
   </si>
   <si>
-    <t>百度</t>
-  </si>
-  <si>
     <t>click</t>
   </si>
   <si>
     <t>action id</t>
   </si>
   <si>
-    <t>访问百度</t>
-  </si>
-  <si>
-    <t>跳转到新闻页</t>
-  </si>
-  <si>
     <t>工具实现目标以及主要应用场景</t>
   </si>
   <si>
@@ -140,9 +131,6 @@
     <t>selenium</t>
   </si>
   <si>
-    <t>点击百度搜索</t>
-  </si>
-  <si>
     <t>open</t>
   </si>
   <si>
@@ -152,9 +140,6 @@
     <t>http://www.baidu.com</t>
   </si>
   <si>
-    <t>访问搜狐</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -205,9 +190,6 @@
     <t>firefox</t>
   </si>
   <si>
-    <t>点点出行首页</t>
-  </si>
-  <si>
     <t>chrome</t>
   </si>
   <si>
@@ -278,9 +260,6 @@
   </si>
   <si>
     <t>http://sahitest.com/demo/selectTest.htm</t>
-  </si>
-  <si>
-    <t>打开测试select网页</t>
   </si>
   <si>
     <t>select</t>
@@ -757,135 +736,135 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H2" s="5">
         <v>43170</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="C4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="5">
         <v>43171</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="C6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H6" s="5">
         <v>43171</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="C7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H7" s="5">
         <v>43171</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="C8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H8" s="5">
         <v>43171</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="C10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="C11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="C13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G13" s="5">
         <v>43171</v>
       </c>
       <c r="I13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="C14" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:9">
       <c r="C15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G15" s="5"/>
     </row>
     <row r="17" spans="3:9">
       <c r="C17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G17" s="5">
         <v>43171</v>
       </c>
       <c r="I17" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="3:9">
       <c r="C18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="3:9">
       <c r="C20" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G20" s="5">
         <v>43171</v>
@@ -894,12 +873,12 @@
         <v>43173</v>
       </c>
       <c r="I20" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="3:9">
       <c r="C22" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -919,7 +898,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -933,7 +912,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -947,7 +926,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1033,7 +1012,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1047,7 +1026,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1061,7 +1040,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1075,7 +1054,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1089,7 +1068,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1119,7 +1098,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -1139,70 +1120,64 @@
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" customHeight="1">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" t="s">
-        <v>27</v>
-      </c>
       <c r="L1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H2" s="3"/>
       <c r="J2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K2" t="s">
-        <v>52</v>
+        <v>68</v>
+      </c>
+      <c r="K2">
+        <v>1111</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
       <c r="C3">
         <v>3</v>
       </c>
@@ -1210,68 +1185,59 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H3" s="3"/>
       <c r="J3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K3" t="s">
-        <v>10</v>
+        <v>68</v>
+      </c>
+      <c r="K3">
+        <v>2222</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>77</v>
-      </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1279,16 +1245,16 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1333,89 +1299,89 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/excels/excel4selenium.xlsx
+++ b/excels/excel4selenium.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="1200" windowWidth="14600" windowHeight="6630" activeTab="3"/>
+    <workbookView xWindow="800" yWindow="1200" windowWidth="14600" windowHeight="6630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目的" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
   <si>
     <t>目的：</t>
   </si>
@@ -269,13 +269,38 @@
   </si>
   <si>
     <t>index:1</t>
+  </si>
+  <si>
+    <t>8、加入log</t>
+  </si>
+  <si>
+    <t>assertLocation（判断当前是在正确的页面）
+assertTitle（检查当前页面的 title 是否正确）
+assertValue（检查 input 的值， checkbox 或 radio，有值为”on”无为”off”）
+assertSelected（检查 select 的下拉菜单中选中是否正确）
+assertSelectedOptions（检查下拉菜单中的选项的是否正确）
+assertText（检查指定元素的文本）
+assertTextPresent（检查在当前给用户显示的页面上是否有出现指定的文本）
+assertTextNotPresent（检查在当前给用户显示的页面上是否没有出现指定的文本）
+assertAttribute（检查当前指定元素的属性的值）
+assertTable（检查 table 里的某个 cell 中的值）
+assertEditable（检查指定的 input 是否可以编辑）
+assertNotEditable（检查指定的 input 是否不可以编辑）
+assertAlert（检查是否有产生带指定 message 的 alert 对话框）
+verifyTitle （检查预期的页面标题）
+verifyTextPresent （验证预期的文本是否在页面上的某个位置）
+verifyElementPresent（验证预期的UI元素，它的HTML标签的定义，是否在当前网页上）
+verifyText（核实预期的文本和相应的HTML标签是否都存在于页面上）
+verifyTable（验证表的预期内容）
+waitForPageToLoad（暂停执行，直到预期的新的页面加载）
+waitForElementPresent （等待检验某元素的存在。为真时，则执行)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,6 +322,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF111111"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -320,7 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -331,6 +362,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -721,9 +755,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -732,9 +766,10 @@
     <col min="7" max="7" width="12.90625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="68.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -748,7 +783,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" t="s">
@@ -761,12 +796,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="C4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="C5" t="s">
         <v>10</v>
       </c>
@@ -777,7 +812,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:11">
       <c r="C6" t="s">
         <v>26</v>
       </c>
@@ -788,7 +823,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:11">
       <c r="C7" t="s">
         <v>30</v>
       </c>
@@ -799,7 +834,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:11">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -810,20 +845,27 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:11" ht="180">
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="I10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="K10" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="C11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -833,20 +875,26 @@
       <c r="I13" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="C14" t="s">
         <v>66</v>
       </c>
       <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="C15" t="s">
         <v>67</v>
       </c>
       <c r="G15" s="5"/>
-    </row>
-    <row r="17" spans="3:9">
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="3:11">
       <c r="C17" t="s">
         <v>13</v>
       </c>
@@ -856,13 +904,18 @@
       <c r="I17" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="18" spans="3:9">
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="3:11">
       <c r="C18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="3:9">
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="3:11">
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="3:11">
       <c r="C20" t="s">
         <v>60</v>
       </c>
@@ -875,11 +928,49 @@
       <c r="I20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" spans="3:9">
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="3:11">
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="3:11">
       <c r="C22" t="s">
         <v>69</v>
       </c>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="3:11">
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="3:11">
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="5">
+        <v>43171</v>
+      </c>
+      <c r="H24" s="5">
+        <v>43186</v>
+      </c>
+      <c r="I24" t="s">
+        <v>57</v>
+      </c>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="3:11">
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="3:11">
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="3:11">
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="3:11">
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="3:11">
+      <c r="K29" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1098,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
